--- a/tools/xAST_v_1.0.0_mySastTool_v2.0.0_sast.xlsx
+++ b/tools/xAST_v_1.0.0_mySastTool_v2.0.0_sast.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bitterz/TeamFile/javaProject/ant-application-security-testing-benchmark/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698E5D2-4758-0040-9435-7791C95B2208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,21 +62,21 @@
     <t>true</t>
   </si>
   <si>
+    <t>DifferentParamsForFunction_002_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/contextSensitive/DifferentParamsForFunction_002_F</t>
+  </si>
+  <si>
+    <t>准确度-&gt;上下文敏感-&gt;相同函数调用不同参数-scene1</t>
+  </si>
+  <si>
+    <t>!DifferentParamsForFunction_002_F.java &amp;&amp; DifferentParamsForFunction_001_T.java</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>DifferentParamsForFunction_002_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/contextSensitive/DifferentParamsForFunction_002_F</t>
-  </si>
-  <si>
-    <t>准确度-&gt;上下文敏感-&gt;相同函数调用不同参数-scene1</t>
-  </si>
-  <si>
-    <t>!DifferentParamsForFunction_002_F.java &amp;&amp; DifferentParamsForFunction_001_T.java</t>
-  </si>
-  <si>
     <t>DifferentParamsForFunction_006_F.java</t>
   </si>
   <si>
@@ -235,7 +242,7 @@
     <t>准确度-&gt;路径敏感-&gt;涉及求解问题-&gt;数组长度计算</t>
   </si>
   <si>
-    <t>DifferentIfBranch_ArrayLength_001_T.java &amp;&amp; !DifferentIfBranch_ArrayLength_002_F &amp;&amp; DifferentIfBranch_ArrayLength_003_T.java</t>
+    <t>DifferentIfBranch_ArrayLength_001_T.java &amp;&amp; !DifferentIfBranch_ArrayLength_002_F.java &amp;&amp; DifferentIfBranch_ArrayLength_003_T.java</t>
   </si>
   <si>
     <t>DifferentIfBranch_ArrayLength_003_T.java</t>
@@ -1888,36 +1895,185 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,10 +2083,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1953,9 +2296,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1966,19 +2551,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2027,7 +2656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2060,26 +2689,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2112,23 +2724,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2270,32 +2865,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6607142857143" customWidth="1"/>
+    <col min="4" max="4" width="131.357142857143" customWidth="1"/>
+    <col min="5" max="5" width="11.8303571428571" customWidth="1"/>
+    <col min="6" max="6" width="27.1607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54">
+    <row r="1" ht="21" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2335,19 +2925,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -2365,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2383,7 +2973,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2401,7 +2991,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -2455,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -2485,10 +3075,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -2509,7 +3099,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2545,7 +3135,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2635,7 +3225,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -2671,7 +3261,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2689,7 +3279,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2833,7 +3423,7 @@
         <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2851,7 +3441,7 @@
         <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2869,7 +3459,7 @@
         <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2887,7 +3477,7 @@
         <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -2905,7 +3495,7 @@
         <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2941,7 +3531,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -2995,7 +3585,7 @@
         <v>135</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -3013,7 +3603,7 @@
         <v>139</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -3031,7 +3621,7 @@
         <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -3049,7 +3639,7 @@
         <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -3067,7 +3657,7 @@
         <v>149</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2"/>
     </row>
@@ -3085,7 +3675,7 @@
         <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -3103,7 +3693,7 @@
         <v>157</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -3139,7 +3729,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -3193,7 +3783,7 @@
         <v>174</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2"/>
     </row>
@@ -3211,7 +3801,7 @@
         <v>178</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -3229,7 +3819,7 @@
         <v>182</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -3265,7 +3855,7 @@
         <v>190</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -3283,7 +3873,7 @@
         <v>194</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3301,7 +3891,7 @@
         <v>198</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -3337,7 +3927,7 @@
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -3427,7 +4017,7 @@
         <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -3463,7 +4053,7 @@
         <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -3499,7 +4089,7 @@
         <v>166</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -3517,7 +4107,7 @@
         <v>170</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -3661,7 +4251,7 @@
         <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -3679,7 +4269,7 @@
         <v>186</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -3697,7 +4287,7 @@
         <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3715,7 +4305,7 @@
         <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -3823,7 +4413,7 @@
         <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -3859,7 +4449,7 @@
         <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2"/>
     </row>
@@ -3895,7 +4485,7 @@
         <v>267</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3967,7 +4557,7 @@
         <v>281</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -3985,7 +4575,7 @@
         <v>285</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -4021,7 +4611,7 @@
         <v>273</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -4039,7 +4629,7 @@
         <v>289</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -4093,7 +4683,7 @@
         <v>277</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -5209,7 +5799,7 @@
         <v>485</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -5227,7 +5817,7 @@
         <v>489</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -5245,7 +5835,7 @@
         <v>493</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -5281,7 +5871,7 @@
         <v>498</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -5299,7 +5889,7 @@
         <v>498</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -5317,7 +5907,7 @@
         <v>489</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F168" s="2"/>
     </row>
@@ -5335,7 +5925,7 @@
         <v>485</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -5353,7 +5943,7 @@
         <v>489</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -5371,7 +5961,7 @@
         <v>493</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -5389,7 +5979,7 @@
         <v>498</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -5425,7 +6015,7 @@
         <v>512</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -5911,7 +6501,7 @@
         <v>573</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -6078,7 +6668,7 @@
       <c r="F210" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tools/xAST_v_1.0.0_mySastTool_v2.0.0_sast.xlsx
+++ b/tools/xAST_v_1.0.0_mySastTool_v2.0.0_sast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curry/IdeaProjects/git/ant-application-security-testing-benchmark/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70AC78-1397-1947-B99E-20B5ED731CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5914A7E-AF9B-3B4B-9CE4-76FCE23364EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45200" yWindow="4540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="829">
   <si>
     <t>文件名</t>
   </si>
@@ -790,15 +790,9 @@
     <t>准确度-&gt;路径敏感分析-&gt;条件语句、条件表达式和循环结构-&gt;无需通过对不同的条件进行求解，即能够区分不同的执行路径的状态</t>
   </si>
   <si>
-    <t>ConstantIfGuard_001_T.java &amp;&amp; !ConstantIfGuard_002_F.java,Expression_InstanceofExpression_003_T.java &amp;&amp; !Expression_InstanceofExpression_004_F.java,Expression_InstanceofExpression_005_T.java &amp;&amp; !Expression_InstanceofExpression_006_F.java,Statement_AssertStatement_003_T.java &amp;&amp; !Statement_AssertStatement_004_F.java,Statement_AssertStatement_005_T.java &amp;&amp; !Statement_AssertStatement_006_F.java,Statement_ForStatement_003_T.java &amp;&amp; !Statement_ForStatement_004_F.java,Statement_WhileStatement_003_T.java &amp;&amp; !Statement_WhileStatement_004_F.java</t>
-  </si>
-  <si>
     <t>Statement_AssertStatement_006_F.java</t>
   </si>
   <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_AssertStatement_006_F/{cmd}</t>
-  </si>
-  <si>
     <t>Statement_ForStatement_004_F.java</t>
   </si>
   <si>
@@ -808,1702 +802,1771 @@
     <t>Statement_AssertStatement_004_F.java</t>
   </si>
   <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_AssertStatement_004_F/{cmd}</t>
+    <t>Expression_InstanceofExpression_004_F.java</t>
+  </si>
+  <si>
+    <t>Expression_InstanceofExpression_006_F.java</t>
+  </si>
+  <si>
+    <t>Statement_WhileStatement_004_F.java</t>
+  </si>
+  <si>
+    <t>Statement_AssertStatement_003_T.java</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_003_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_ForStatement_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_InstanceofExpression_005_T.java</t>
+  </si>
+  <si>
+    <t>Statement_AssertStatement_005_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/ConstantIfGuard_002_F</t>
+  </si>
+  <si>
+    <t>Expression_InstanceofExpression_003_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_002_F</t>
+  </si>
+  <si>
+    <t>准确度-&gt;路径敏感分析-&gt;条件语句、条件表达式和循环结构-&gt;能够对上下文条件进行求解，以区分不同执行路径的状态</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_003_T</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_001_T</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_006_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>准确度-&gt;路径敏感分析-&gt;异常抛出和捕获</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_001_T.java &amp;&amp; !Statement_TryStatement_002_F.java,Statement_TryStatement_003_T.java &amp;&amp; !Statement_TryStatement_004_F.java,Statement_TryStatement_005_T.java &amp;&amp; !Statement_TryStatement_006_F.java</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_004_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_003_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_001_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryStatement_005_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>CompletableFuture_002_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/CompletableFuture_002_F</t>
+  </si>
+  <si>
+    <t>准确度-&gt;流敏感分析-&gt;异步执行</t>
+  </si>
+  <si>
+    <t>CompletableFuture_001_T.java &amp;&amp; !CompletableFuture_002_F.java,Async_Multithreading_001_T.java &amp;&amp; !Async_Multithreading_002_F.java,Async_Multithreading_003_T.java &amp;&amp; !Async_Multithreading_004_F.java,Async_Multithreading_005_T.java &amp;&amp; !Async_Multithreading_006_F.java,Async_Multithreading_007_T.java &amp;&amp; !Async_Multithreading_008_F.java,Async_Multithreading_009_T.java &amp;&amp; !Async_Multithreading_010_F.java</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_003_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_001_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_009_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_009_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_005_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_007_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_006_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_008_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_004_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>CompletableFuture_001_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/CompletableFuture_001_T</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_010_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_010_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_002_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_001_T</t>
+  </si>
+  <si>
+    <t>准确度-&gt;流敏感分析-&gt;常规顺序执行语句</t>
+  </si>
+  <si>
+    <t>!AssignedByFixedValue_001_F.java &amp;&amp; AssignedByFixedValue_002_T.java,!AssignedByVariable_001_F.java &amp;&amp; AssignedByVariable_002_T.java,!AssignObjectAttribute_001_F.java &amp;&amp; AssignObjectAttribute_002_T.java,FlowSensitiveAlias_001_T.java &amp;&amp; !FlowSensitiveAlias_002_F.java,FlowSensitiveAlias_003_T.java &amp;&amp; !FlowSensitiveAlias_004_F.java</t>
+  </si>
+  <si>
+    <t>AssignedByVariable_002_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByVariable_002_T</t>
+  </si>
+  <si>
+    <t>AssignObjectAttribute_001_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignObjectAttribute_001_F</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByFixedValue_001_F</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_003_T</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_004_F</t>
+  </si>
+  <si>
+    <t>AssignedByVariable_001_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByVariable_001_F</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_002_F</t>
+  </si>
+  <si>
+    <t>AssignObjectAttribute_002_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignObjectAttribute_002_T</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByFixedValue_002_T</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_008_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>准确度-&gt;流敏感分析-&gt;循环顺序执行语句</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_005_T.java &amp;&amp; !Statement_ForStatement_006_F.java,Statement_ForStatement_007_T.java &amp;&amp; !Statement_ForStatement_008_F.java</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_006_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_007_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_005_T.java</t>
+  </si>
+  <si>
+    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>simple_object_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/simple_object/simple_object_002_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;简单对象</t>
+  </si>
+  <si>
+    <t>simple_object_001_T.java &amp;&amp; !simple_object_002_F.java</t>
+  </si>
+  <si>
+    <t>simple_object_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/simple_object/simple_object_001_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/anonymous_object/CallExpression_CustomCode_Class_007_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;匿名对象</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_007_T.java &amp;&amp; !CallExpression_CustomCode_Class_008_F.java</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/anonymous_object/CallExpression_CustomCode_Class_008_F</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/abstract_class/CallExpression_CustomCode_Class_005_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;抽象类的实现类</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_005_T.java &amp;&amp; !CallExpression_CustomCode_Class_006_F.java</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/abstract_class/CallExpression_CustomCode_Class_006_F</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_001_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;复杂对象</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_001_T.java &amp;&amp; !CallExpression_CustomCode_Class_002_F.java,CallExpression_CustomCode_Class_003_T.java &amp;&amp; !CallExpression_CustomCode_Class_004_F.java,CallExpression_CustomCode_Interface_003_T.java &amp;&amp; !CallExpression_CustomCode_Interface_004_F.java</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_003_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Interface_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Interface_003_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_004_F</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Interface_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Interface_004_F</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/ReturnAlias_001_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;别名</t>
+  </si>
+  <si>
+    <t>!FieldUnAlias_001_F.java &amp;&amp; FieldUnAlias_002_T.java,FieldUnAlias_003_T.java &amp;&amp; !FieldUnAlias_004_F.java,HeapOverwriteAlias_001_T.java &amp;&amp; !HeapOverwriteAlias_002_F.java,HeapOverwriteAlias_003_T.java &amp;&amp; !HeapOverwriteAlias_004_F.java,HeapPointsToSelfAlias_001_T.java &amp;&amp; !HeapPointsToSelfAlias_002_F.java,InnerClassAlias_001_T.java &amp;&amp; !InnerClassAlias_002_F.java,!InnerClassAlias_003_F.java &amp;&amp; !InnerClassAlias_004_F.java &amp;&amp; InnerClassAlias_005_T.java &amp;&amp; InnerClassAlias_006_T.java,InnerClassAlias_007_T.java &amp;&amp; !InnerClassAlias_008_F.java,InnerClassAlias_009_T.java &amp;&amp; !InnerClassAlias_010_F.java,NullAlias_001_T.java &amp;&amp; !NullAlias_002_F.java,PrimitiveFieldAccess_001_T.java &amp;&amp; !PrimitiveFieldAccess_002_F.java,PrimitiveFieldAccess_003_T.java &amp;&amp; !PrimitiveFieldAccess_004_F.java,ReturnAlias_001_T.java &amp;&amp; !ReturnAlias_002_F.java,ReturnAlias_003_T.java &amp;&amp; !ReturnAlias_004_F.java,SameArgumentAlias_001_T.java &amp;&amp; !SameArgumentAlias_002_F.java,SingleFieldAccessAlias_001_T.java &amp;&amp; !SingleFieldAccessAlias_002_F.java,StaticFieldAlias_001_T.java &amp;&amp; !StaticFieldAlias_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/FieldUnAlias_002_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_006_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/SingleFieldAccessAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_010_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/StaticFieldAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/ReturnAlias_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/FieldUnAlias_004_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/NullAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_004_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_008_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapPointsToSelfAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_004_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/SameArgumentAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_003_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_007_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/ReturnAlias_004_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/FieldUnAlias_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapPointsToSelfAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/SameArgumentAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_005_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_009_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/FieldUnAlias_001_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_004_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/ReturnAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/InnerClassAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/SingleFieldAccessAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/StaticFieldAlias_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/alias/NullAlias_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;并发、多线程、异步-&gt;同步原语</t>
+  </si>
+  <si>
+    <t>CompletableFuture_001_T.java &amp;&amp; !CompletableFuture_002_F.java,CompletableFuture_003_T.java &amp;&amp; !CompletableFuture_004_F.java</t>
+  </si>
+  <si>
+    <t>CompletableFuture_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>CompletableFuture_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;并发、多线程、异步-&gt;多线程</t>
+  </si>
+  <si>
+    <t>Async_Multithreading_001_T.java &amp;&amp; !Async_Multithreading_002_F.java,Async_Multithreading_003_T.java &amp;&amp; !Async_Multithreading_004_F.java,Async_Multithreading_005_T.java &amp;&amp; !Async_Multithreading_006_F.java,Async_Multithreading_007_T.java &amp;&amp; !Async_Multithreading_008_F.java,Async_Multithreading_009_T.java &amp;&amp; !Async_Multithreading_010_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_009_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_010_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>cross_file_001_T_a.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_001_T/cross_file_001_T_a</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;文件、包、命名空间-&gt;跨文件</t>
+  </si>
+  <si>
+    <t>(cross_file_001_T_a.java || cross_file_001_T_b.java) &amp;&amp; !(cross_file_002_F_a.java || cross_file_002_F_b.java)</t>
+  </si>
+  <si>
+    <t>cross_file_001_T_b.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_001_T/cross_file_001_T_b</t>
+  </si>
+  <si>
+    <t>cross_file_002_F_b.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_002_F/cross_file_002_F_b</t>
+  </si>
+  <si>
+    <t>cross_file_002_F_a.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_002_F/cross_file_002_F_a</t>
+  </si>
+  <si>
+    <t>cross_directory_002_F_a.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_002_F/A/cross_directory_002_F_a</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;文件、包、命名空间-&gt;跨包</t>
+  </si>
+  <si>
+    <t>(cross_directory_001_T_a.java || cross_directory_001_T_b.java) &amp;&amp; !(cross_directory_002_F_a.java || cross_directory_002_F_b.java)</t>
+  </si>
+  <si>
+    <t>cross_directory_002_F_b.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_002_F/B/cross_directory_002_F_b</t>
+  </si>
+  <si>
+    <t>cross_directory_001_T_a.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_001_T/A/cross_directory_001_T_a</t>
+  </si>
+  <si>
+    <t>cross_directory_001_T_b.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_001_T/B/cross_directory_001_T_b</t>
+  </si>
+  <si>
+    <t>Expression_MethodInvocation_Argument_001_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/chained_call/Expression_MethodInvocation_Argument_001_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;链式调用</t>
+  </si>
+  <si>
+    <t>!Expression_MethodInvocation_Argument_001_F.java &amp;&amp; Expression_MethodInvocation_Argument_002_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/chained_call/Expression_MethodInvocation_Argument_002_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/override/Expression_Polymorphism_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;方法重写</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/override/Expression_Polymorphism_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>static_method_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/static_method/static_method_002_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;静态方法</t>
+  </si>
+  <si>
+    <t>static_field_001_T.java &amp;&amp; !static_field_002_F.java,static_method_001_T.java &amp;&amp; !static_method_002_F.java</t>
+  </si>
+  <si>
+    <t>static_field_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/static_method/static_field_002_F</t>
+  </si>
+  <si>
+    <t>static_field_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/static_method/static_field_001_T</t>
+  </si>
+  <si>
+    <t>static_method_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/static_method/static_method_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/return_value_passing/return_value_passing_002_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;返回值传递</t>
+  </si>
+  <si>
+    <t>return_value_passing_001_T.java &amp;&amp; !return_value_passing_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/return_value_passing/return_value_passing_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_InfixExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;参数传递</t>
+  </si>
+  <si>
+    <t>Expression_CallExpression_Package_001_T.java &amp;&amp; !Expression_CallExpression_Package_002_F.java,Expression_MethodInvocation_001_T.java &amp;&amp; !Expression_MethodInvocation_002_F.java,Expression_MethodInvocation_InfixExpression_001_T.java &amp;&amp; !Expression_MethodInvocation_InfixExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_CallExpression_Package_001_T/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_InfixExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_CallExpression_Package_002_F/{url}</t>
+  </si>
+  <si>
+    <t>higher_order_function_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/higher_order_function/higher_order_function_001_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;高阶函数</t>
+  </si>
+  <si>
+    <t>higher_order_function_001_T.java &amp;&amp; !higher_order_function_002_F.java</t>
+  </si>
+  <si>
+    <t>higher_order_function_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/higher_order_function/higher_order_function_002_F</t>
+  </si>
+  <si>
+    <t>CallExpression_NoSourceCode_Native_003_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_003_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;库函数调用</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Interface_001_T.java &amp;&amp; !CallExpression_CustomCode_Interface_002_F.java,!CallExpression_NoSourceCode_Native_001_F.java &amp;&amp; CallExpression_NoSourceCode_Native_002_T.java,!CallExpression_NoSourceCode_Native_003_F.java &amp;&amp; CallExpression_NoSourceCode_Native_004_T.java,!CallExpression_NoSourceCode_Native_005_F.java &amp;&amp; CallExpression_NoSourceCode_Native_006_T.java,!Expression_CallExpression_Array_001_F.java &amp;&amp; Expression_CallExpression_Array_002_T.java,!Expression_MethodInvocation_MethodInvocation_001_F.java &amp;&amp; Expression_MethodInvocation_MethodInvocation_002_T.java</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Interface_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_CustomCode_Interface_001_T</t>
+  </si>
+  <si>
+    <t>CallExpression_NoSourceCode_Native_001_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_001_F</t>
+  </si>
+  <si>
+    <t>Expression_CallExpression_Array_002_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/Expression_CallExpression_Array_002_T</t>
+  </si>
+  <si>
+    <t>Expression_MethodInvocation_MethodInvocation_002_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/Expression_MethodInvocation_MethodInvocation_002_T</t>
+  </si>
+  <si>
+    <t>CallExpression_NoSourceCode_Native_005_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_005_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_006_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_004_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Interface_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_CustomCode_Interface_002_F</t>
+  </si>
+  <si>
+    <t>Expression_CallExpression_Array_001_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/Expression_CallExpression_Array_001_F</t>
+  </si>
+  <si>
+    <t>Expression_MethodInvocation_MethodInvocation_001_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/Expression_MethodInvocation_MethodInvocation_001_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_002_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_011_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_011_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;指针</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_009_T.java &amp;&amp; !CallExpression_CustomCode_Class_010_F.java,CallExpression_CustomCode_Class_011_T.java &amp;&amp; !CallExpression_CustomCode_Class_012_F.java</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_009_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_009_T</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_010_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_010_F</t>
+  </si>
+  <si>
+    <t>CallExpression_CustomCode_Class_012_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_012_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_006_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;数组</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_001_T.java &amp;&amp; !Base_ArrayAccess_002_F.java,Base_ArrayAccess_003_T.java &amp;&amp; !Base_ArrayAccess_004_F.java,Base_ArrayAccess_005_T.java &amp;&amp; !Base_ArrayAccess_006_F.java,Base_ArrayAccess_007_T.java &amp;&amp; !Base_ArrayAccess_008_F.java,Base_ArrayAccess_009_T.java &amp;&amp; !Base_ArrayAccess_010_F.java</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_008_F</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_004_F</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_010_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_010_F</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_001_T</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_009_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_009_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_005_T</t>
+  </si>
+  <si>
+    <t>Base_ArrayAccess_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_007_T</t>
+  </si>
+  <si>
+    <t>Base_Byte_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;基础数据类型</t>
+  </si>
+  <si>
+    <t>(Base_Byte_001_T.java &amp;&amp; !Base_Byte_002_F.java)||(Base_Byte_005_T.java &amp;&amp; !Base_Byte_006_F.java),(Base_Byte_003_T.java &amp;&amp; !Base_Byte_004_F.java)||(Base_Byte_007_T.java &amp;&amp; !Base_Byte_008_F.java),(Base_ByteArray_001_T.java &amp;&amp; !Base_ByteArray_002_F.java)||(Base_ByteArray_003_T.java &amp;&amp; !Base_ByteArray_004_F.java),(Base_Char_001_T.java &amp;&amp; !Base_Char_002_F.java)||(Base_Char_005_T.java &amp;&amp; !Base_Char_006_F.java),(Base_Char_003_T.java &amp;&amp; !Base_Char_004_F.java)||(Base_Char_007_T.java &amp;&amp; !Base_Char_008_F.java),(Base_CharArray_001_T.java &amp;&amp; !Base_CharArray_002_F.java)||(Base_CharArray_003_T.java &amp;&amp; !Base_CharArray_004_F.java),(Base_Integer_001_T.java &amp;&amp; !Base_Integer_002_F.java)||(Base_Integer_003_T.java &amp;&amp; !Base_Integer_004_F.java),(Base_Integer_005_T.java &amp;&amp; !Base_Integer_006_F.java)||(Base_Integer_007_T.java &amp;&amp; !Base_Integer_008_F.java),(Base_Long_001_T.java &amp;&amp; !Base_Long_002_F.java)||(Base_Long_005_T.java &amp;&amp; !Base_Long_006_F.java),(Base_Long_003_T.java &amp;&amp; !Base_Long_004_F.java)||(Base_Long_007_T.java &amp;&amp; !Base_Long_008_F.java),(Base_Double_001_T.java &amp;&amp; !Base_Double_002_F.java)||(Base_Double_003_T.java &amp;&amp; !Base_Double_004_F.java),(Base_Float_001_T.java &amp;&amp; !Base_Float_002_F.java)||(Base_Float_003_T.java &amp;&amp; !Base_Float_004_F.java)</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Double_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Byte_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Byte_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_ByteArray_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_004_F</t>
+  </si>
+  <si>
+    <t>Base_Integer_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Double_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Long_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Float_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_001_T</t>
+  </si>
+  <si>
+    <t>Base_Integer_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Integer_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_CharArray_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_003_T</t>
+  </si>
+  <si>
+    <t>Base_Float_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Integer_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_ByteArray_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_002_F</t>
+  </si>
+  <si>
+    <t>Base_Long_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Byte_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Long_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Long_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Double_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_ByteArray_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_003_T</t>
+  </si>
+  <si>
+    <t>Base_CharArray_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_002_F</t>
+  </si>
+  <si>
+    <t>Base_Integer_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Float_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Integer_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Long_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Double_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_001_T</t>
+  </si>
+  <si>
+    <t>Base_Integer_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_CharArray_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_004_F</t>
+  </si>
+  <si>
+    <t>Base_Long_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Char_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Byte_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Byte_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Float_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Base_Map_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/map/Base_Map_004_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;字典</t>
+  </si>
+  <si>
+    <t>(Base_Map_001_T.java &amp;&amp; !Base_Map_002_F.java)||(Base_Map_003_T.java &amp;&amp; !Base_Map_004_F.java)</t>
+  </si>
+  <si>
+    <t>Base_Map_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/map/Base_Map_002_F</t>
+  </si>
+  <si>
+    <t>Base_Map_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/map/Base_Map_003_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/map/Base_Map_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringArray_001_T</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;字符串</t>
+  </si>
+  <si>
+    <t>Base_String_001_T.java &amp;&amp; !Base_String_002_F.java,Base_StringArray_001_T.java &amp;&amp; !Base_StringArray_002_F.java,Base_StringBuffer_001_T.java &amp;&amp; !Base_StringBuffer_002_F.java,Base_StringBuilder_001_T.java &amp;&amp; !Base_StringBuilder_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_String_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuilder_001_T</t>
+  </si>
+  <si>
+    <t>Base_StringBuffer_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuffer_002_F</t>
+  </si>
+  <si>
+    <t>Base_String_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_String_002_F</t>
+  </si>
+  <si>
+    <t>Base_StringBuilder_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuilder_002_F</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuffer_001_T</t>
+  </si>
+  <si>
+    <t>Base_StringArray_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/string/Base_StringArray_002_F</t>
+  </si>
+  <si>
+    <t>Base_Queue_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_004_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;集合</t>
+  </si>
+  <si>
+    <t>Base_List_001_T.java &amp;&amp; !Base_List_002_F.java,Base_List_003_T.java &amp;&amp; !Base_List_004_F.java,(Base_Queue_001_T.java &amp;&amp; !Base_Queue_002_F.java)||(Base_Queue_003_T.java &amp;&amp; !Base_Queue_004_F.java),Base_Set_001_T.java &amp;&amp; !Base_Set_002_F.java,Base_Set_003_T.java &amp;&amp; !Base_Set_004_F.java,Base_List_005_T.java &amp;&amp; !Base_List_006_F.java,Base_List_007_T.java &amp;&amp; !Base_List_008_F.java,Base_Queue_005_T.java &amp;&amp; !Base_Queue_006_F.java,Base_Set_005_T.java &amp;&amp; !Base_Set_006_F.java</t>
+  </si>
+  <si>
+    <t>Base_Set_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_004_F</t>
+  </si>
+  <si>
+    <t>Base_List_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_002_F</t>
+  </si>
+  <si>
+    <t>Base_Set_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_006_F</t>
+  </si>
+  <si>
+    <t>Base_Queue_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_006_F</t>
+  </si>
+  <si>
+    <t>Base_Set_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_002_F</t>
+  </si>
+  <si>
+    <t>Base_List_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_006_F</t>
+  </si>
+  <si>
+    <t>Base_Queue_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_002_F</t>
+  </si>
+  <si>
+    <t>Base_List_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_008_F</t>
+  </si>
+  <si>
+    <t>Base_List_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_004_F</t>
+  </si>
+  <si>
+    <t>Base_List_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_005_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_001_T</t>
+  </si>
+  <si>
+    <t>Base_Queue_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_003_T</t>
+  </si>
+  <si>
+    <t>Base_List_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_007_T</t>
+  </si>
+  <si>
+    <t>Base_Set_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_003_T</t>
+  </si>
+  <si>
+    <t>Base_List_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_003_T</t>
+  </si>
+  <si>
+    <t>Base_Set_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_005_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_List_001_T</t>
+  </si>
+  <si>
+    <t>Base_Queue_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_005_T</t>
+  </si>
+  <si>
+    <t>Statement_AssertStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/assert_statement/Statement_AssertStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;异常与错误处理-&gt;断言</t>
+  </si>
+  <si>
+    <t>Statement_AssertStatement_001_T.java &amp;&amp; !Statement_AssertStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>Statement_AssertStatement_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/assert_statement/Statement_AssertStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryCatchStatement_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryCatchStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;异常与错误处理-&gt;异常抛出和捕获</t>
+  </si>
+  <si>
+    <t>Statement_TryCatchStatement_001_T.java &amp;&amp; !Statement_TryCatchStatement_002_F.java,Statement_TryStatement_001_T.java &amp;&amp; !Statement_TryStatement_002_F.java,Statement_FinallyStatement_001_T.java &amp;&amp; !Statement_FinallyStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>Statement_FinallyStatement_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_FinallyStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_FinallyStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_FinallyStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_TryCatchStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryCatchStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>static_variable_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/variable_scope/static_variable/static_variable_002_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;变量作用域-&gt;静态变量</t>
+  </si>
+  <si>
+    <t>static_variable_001_T.java &amp;&amp; !static_variable_002_F.java</t>
+  </si>
+  <si>
+    <t>static_variable_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/variable_scope/static_variable/static_variable_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_WhileStatement_001_T/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;流程控制语句-&gt;循环结构</t>
+  </si>
+  <si>
+    <t>Statement_DoStatement_001_T.java &amp;&amp; !Statement_DoStatement_002_F.java,Statement_ForEachStatement_001_T.java &amp;&amp; !Statement_ForEachStatement_002_F.java,Statement_ForStatement_001_T.java &amp;&amp; !Statement_ForStatement_002_F.java,Statement_WhileStatement_001_T.java &amp;&amp; !Statement_WhileStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>Statement_ForStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_DoStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_DoStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_ForEachStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForEachStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_ForEachStatement_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForEachStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_DoStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_WhileStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_WhileStatement_002_F/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_005_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;流程控制语句-&gt;条件语句</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_001_T.java &amp;&amp; !Statement_IfStatement_002_F.java,Statement_IfStatement_003_T.java &amp;&amp; !Statement_IfStatement_004_F.java,Statement_IfStatement_005_T.java &amp;&amp; !Statement_IfStatement_006_F.java,Statement_IfStatement_007_T.java &amp;&amp; !Statement_IfStatement_008_F.java,Statement_SwitchStatement_001_T.java &amp;&amp; !Statement_SwitchStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_007_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_007_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_SwitchStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_SwitchStatement_002_F/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_SwitchStatement_001_T/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_006_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_IfStatement_008_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_008_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;类型转换</t>
+  </si>
+  <si>
+    <t>Expression_CastExpression_001_T.java &amp;&amp; !Expression_CastExpression_002_F.java,Expression_CastExpression_003_T.java &amp;&amp; !Expression_CastExpression_004_F.java</t>
+  </si>
+  <si>
+    <t>Expression_CastExpression_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_003_T/{url}</t>
+  </si>
+  <si>
+    <t>Expression_CastExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_CastExpression_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_004_F/{url}</t>
+  </si>
+  <si>
+    <t>Expression_LambdaExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/lambda_expression/Expression_LambdaExpression_002_F</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;Lambda表达式</t>
+  </si>
+  <si>
+    <t>Expression_LambdaExpression_001_T.java &amp;&amp; !Expression_LambdaExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/lambda_expression/Expression_LambdaExpression_001_T</t>
+  </si>
+  <si>
+    <t>Expression_ThisExpression_Anonymous_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Anonymous_002_F/{url}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;this表达式</t>
+  </si>
+  <si>
+    <t>Expression_ThisExpression_001_T.java &amp;&amp; !Expression_ThisExpression_002_F.java,Expression_ThisExpression_Anonymous_001_T.java &amp;&amp; !Expression_ThisExpression_Anonymous_002_F.java,Expression_ThisExpression_Lambda_001_T.java &amp;&amp; !Expression_ThisExpression_Lambda_002_F.java</t>
+  </si>
+  <si>
+    <t>Expression_ThisExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_002_F/{url}</t>
+  </si>
+  <si>
+    <t>Expression_ThisExpression_Lambda_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Lambda_002_F/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_001_T/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Lambda_001_T/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Anonymous_001_T/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/conditional_expression/Expression_TernaryOperator_001_T/{url}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;条件表达式</t>
+  </si>
+  <si>
+    <t>Expression_TernaryOperator_001_T.java &amp;&amp; !Expression_TernaryOperator_002_F.java</t>
+  </si>
+  <si>
+    <t>Expression_TernaryOperator_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/conditional_expression/Expression_TernaryOperator_002_F/{url}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PrefixExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;基础表达式</t>
+  </si>
+  <si>
+    <t>Expression_AssignmentExpression_001_T.java &amp;&amp; !Expression_AssignmentExpression_002_F.java,Expression_AssignmentExpression_003_T.java &amp;&amp; !Expression_AssignmentExpression_004_F.java,Expression_BitOperation_001_T.java &amp;&amp; !Expression_BitOperation_002_F.java,Expression_ClassInstance_Infix_001_T.java &amp;&amp; !Expression_ClassInstance_Infix_002_F.java,Expression_InfixExpression_001_T.java &amp;&amp; !Expression_InfixExpression_002_F.java,Expression_InstanceofExpression_001_T.java &amp;&amp; !Expression_InstanceofExpression_002_F.java,Expression_PostfixExpression_001_T.java &amp;&amp; !Expression_PostfixExpression_002_F.java,Expression_PrefixExpression_001_T.java &amp;&amp; !Expression_PrefixExpression_002_F.java,Statement_VariableDeclarationStatement_001_T.java &amp;&amp; !Statement_VariableDeclarationStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_BitOperation_001_T</t>
+  </si>
+  <si>
+    <t>Expression_InstanceofExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InstanceofExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Statement_VariableDeclarationStatement_001_T</t>
+  </si>
+  <si>
+    <t>Expression_AssignmentExpression_003_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InfixExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_PostfixExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PostfixExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_ClassInstance_Infix_001_T</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PostfixExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_InfixExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InfixExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_AssignmentExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_ClassInstance_Infix_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_ClassInstance_Infix_002_F</t>
+  </si>
+  <si>
+    <t>Expression_InstanceofExpression_001_T.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InstanceofExpression_001_T/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_PrefixExpression_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PrefixExpression_002_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Expression_BitOperation_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_BitOperation_002_F</t>
+  </si>
+  <si>
+    <t>Expression_AssignmentExpression_004_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>Statement_VariableDeclarationStatement_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Statement_VariableDeclarationStatement_002_F</t>
+  </si>
+  <si>
+    <t>Expression_Reflection_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/dynamic_tracing/dynamic_call/Expression_Reflection_002_F/{cmd}/{methodname}</t>
+  </si>
+  <si>
+    <t>完整度-&gt;动态特性跟踪完整度-&gt;反射调用</t>
+  </si>
+  <si>
+    <t>Expression_Reflection_001_T.java &amp;&amp; !Expression_Reflection_002_F.java</t>
+  </si>
+  <si>
+    <t>/completeness/dynamic_tracing/dynamic_call/Expression_Reflection_001_T/{cmd}/{methodname}</t>
+  </si>
+  <si>
+    <t>评价项等级</t>
+  </si>
+  <si>
+    <t>ConstantIfGuard_001_T.java &amp;&amp; !ConstantIfGuard_002_F.java,Statement_ForStatement_003_T.java &amp;&amp; !Statement_ForStatement_004_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_AssertStatement_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>DifferentIfBranch_ArrayLength_001_T.java &amp;&amp; !DifferentIfBranch_ArrayLength_002_F.java &amp;&amp; DifferentIfBranch_ArrayLength_003_T.java,Statement_WhileStatement_003_T.java &amp;&amp; !Statement_WhileStatement_004_F.java,Statement_AssertStatement_003_T.java &amp;&amp; !Statement_AssertStatement_004_F.java,Statement_AssertStatement_005_T.java &amp;&amp; !Statement_AssertStatement_006_F.java,Expression_InstanceofExpression_003_T.java &amp;&amp; !Expression_InstanceofExpression_004_F.java,Expression_InstanceofExpression_005_T.java &amp;&amp; !Expression_InstanceofExpression_006_F.java</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_AssertStatement_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_WhileStatement_003_T/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Expression_InstanceofExpression_004_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Expression_InstanceofExpression_006_F/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_WhileStatement_004_F/{type}/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_AssertStatement_003_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Expression_InstanceofExpression_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Statement_AssertStatement_005_T/{cmd}</t>
+  </si>
+  <si>
+    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/Expression_InstanceofExpression_003_T/{cmd}</t>
   </si>
   <si>
     <t>Statement_WhileStatement_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_WhileStatement_003_T/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_004_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Expression_InstanceofExpression_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_006_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Expression_InstanceofExpression_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_WhileStatement_004_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_WhileStatement_004_F/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_AssertStatement_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_AssertStatement_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_ForStatement_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_005_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Expression_InstanceofExpression_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_AssertStatement_005_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Statement_AssertStatement_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/ConstantIfGuard_002_F</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/no_solver/Expression_InstanceofExpression_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_002_F</t>
-  </si>
-  <si>
-    <t>准确度-&gt;路径敏感分析-&gt;条件语句、条件表达式和循环结构-&gt;能够对上下文条件进行求解，以区分不同执行路径的状态</t>
-  </si>
-  <si>
-    <t>DifferentIfBranch_ArrayLength_001_T.java &amp;&amp; !DifferentIfBranch_ArrayLength_002_F.java &amp;&amp; DifferentIfBranch_ArrayLength_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_003_T</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/loop_conditional_stmt/solver/DifferentIfBranch_ArrayLength_001_T</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_006_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>准确度-&gt;路径敏感分析-&gt;异常抛出和捕获</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_001_T.java &amp;&amp; !Statement_TryStatement_002_F.java,Statement_TryStatement_003_T.java &amp;&amp; !Statement_TryStatement_004_F.java,Statement_TryStatement_005_T.java &amp;&amp; !Statement_TryStatement_006_F.java</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_004_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_001_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryStatement_005_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/path_sensitive/exception_throw/Statement_TryStatement_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>CompletableFuture_002_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/CompletableFuture_002_F</t>
-  </si>
-  <si>
-    <t>准确度-&gt;流敏感分析-&gt;异步执行</t>
-  </si>
-  <si>
-    <t>CompletableFuture_001_T.java &amp;&amp; !CompletableFuture_002_F.java,Async_Multithreading_001_T.java &amp;&amp; !Async_Multithreading_002_F.java,Async_Multithreading_003_T.java &amp;&amp; !Async_Multithreading_004_F.java,Async_Multithreading_005_T.java &amp;&amp; !Async_Multithreading_006_F.java,Async_Multithreading_007_T.java &amp;&amp; !Async_Multithreading_008_F.java,Async_Multithreading_009_T.java &amp;&amp; !Async_Multithreading_010_F.java</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_003_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_001_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_009_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_009_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_005_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_007_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_006_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_008_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_004_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>CompletableFuture_001_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/CompletableFuture_001_T</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_010_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_010_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_002_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/asynchronous/Async_Multithreading_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_001_T</t>
-  </si>
-  <si>
-    <t>准确度-&gt;流敏感分析-&gt;常规顺序执行语句</t>
-  </si>
-  <si>
-    <t>!AssignedByFixedValue_001_F.java &amp;&amp; AssignedByFixedValue_002_T.java,!AssignedByVariable_001_F.java &amp;&amp; AssignedByVariable_002_T.java,!AssignObjectAttribute_001_F.java &amp;&amp; AssignObjectAttribute_002_T.java,FlowSensitiveAlias_001_T.java &amp;&amp; !FlowSensitiveAlias_002_F.java,FlowSensitiveAlias_003_T.java &amp;&amp; !FlowSensitiveAlias_004_F.java</t>
-  </si>
-  <si>
-    <t>AssignedByVariable_002_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByVariable_002_T</t>
-  </si>
-  <si>
-    <t>AssignObjectAttribute_001_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignObjectAttribute_001_F</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByFixedValue_001_F</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_003_T</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_004_F</t>
-  </si>
-  <si>
-    <t>AssignedByVariable_001_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByVariable_001_F</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/FlowSensitiveAlias_002_F</t>
-  </si>
-  <si>
-    <t>AssignObjectAttribute_002_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignObjectAttribute_002_T</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/normal_stmt/AssignedByFixedValue_002_T</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_008_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>准确度-&gt;流敏感分析-&gt;循环顺序执行语句</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_005_T.java &amp;&amp; !Statement_ForStatement_006_F.java,Statement_ForStatement_007_T.java &amp;&amp; !Statement_ForStatement_008_F.java</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_006_F.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_007_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_005_T.java</t>
-  </si>
-  <si>
-    <t>/accuracy/flow_sensitive/loop_stmt/Statement_ForStatement_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>simple_object_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/simple_object/simple_object_002_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;简单对象</t>
-  </si>
-  <si>
-    <t>simple_object_001_T.java &amp;&amp; !simple_object_002_F.java</t>
-  </si>
-  <si>
-    <t>simple_object_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/simple_object/simple_object_001_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/anonymous_object/CallExpression_CustomCode_Class_007_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;匿名对象</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_007_T.java &amp;&amp; !CallExpression_CustomCode_Class_008_F.java</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/anonymous_object/CallExpression_CustomCode_Class_008_F</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/abstract_class/CallExpression_CustomCode_Class_005_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;抽象类的实现类</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_005_T.java &amp;&amp; !CallExpression_CustomCode_Class_006_F.java</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/abstract_class/CallExpression_CustomCode_Class_006_F</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_001_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;接口与类-&gt;复杂对象</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_001_T.java &amp;&amp; !CallExpression_CustomCode_Class_002_F.java,CallExpression_CustomCode_Class_003_T.java &amp;&amp; !CallExpression_CustomCode_Class_004_F.java,CallExpression_CustomCode_Interface_003_T.java &amp;&amp; !CallExpression_CustomCode_Interface_004_F.java</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_003_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Interface_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Interface_003_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_004_F</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Interface_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Interface_004_F</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/interface_class/complex_object/CallExpression_CustomCode_Class_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/ReturnAlias_001_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;别名</t>
-  </si>
-  <si>
-    <t>!FieldUnAlias_001_F.java &amp;&amp; FieldUnAlias_002_T.java,FieldUnAlias_003_T.java &amp;&amp; !FieldUnAlias_004_F.java,HeapOverwriteAlias_001_T.java &amp;&amp; !HeapOverwriteAlias_002_F.java,HeapOverwriteAlias_003_T.java &amp;&amp; !HeapOverwriteAlias_004_F.java,HeapPointsToSelfAlias_001_T.java &amp;&amp; !HeapPointsToSelfAlias_002_F.java,InnerClassAlias_001_T.java &amp;&amp; !InnerClassAlias_002_F.java,!InnerClassAlias_003_F.java &amp;&amp; !InnerClassAlias_004_F.java &amp;&amp; InnerClassAlias_005_T.java &amp;&amp; InnerClassAlias_006_T.java,InnerClassAlias_007_T.java &amp;&amp; !InnerClassAlias_008_F.java,InnerClassAlias_009_T.java &amp;&amp; !InnerClassAlias_010_F.java,NullAlias_001_T.java &amp;&amp; !NullAlias_002_F.java,PrimitiveFieldAccess_001_T.java &amp;&amp; !PrimitiveFieldAccess_002_F.java,PrimitiveFieldAccess_003_T.java &amp;&amp; !PrimitiveFieldAccess_004_F.java,ReturnAlias_001_T.java &amp;&amp; !ReturnAlias_002_F.java,ReturnAlias_003_T.java &amp;&amp; !ReturnAlias_004_F.java,SameArgumentAlias_001_T.java &amp;&amp; !SameArgumentAlias_002_F.java,SingleFieldAccessAlias_001_T.java &amp;&amp; !SingleFieldAccessAlias_002_F.java,StaticFieldAlias_001_T.java &amp;&amp; !StaticFieldAlias_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/FieldUnAlias_002_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_006_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/SingleFieldAccessAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_010_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/StaticFieldAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/ReturnAlias_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/FieldUnAlias_004_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/NullAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_004_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_008_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapPointsToSelfAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_004_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/SameArgumentAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_003_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_007_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/ReturnAlias_004_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/FieldUnAlias_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapPointsToSelfAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/SameArgumentAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_005_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_009_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/FieldUnAlias_001_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/PrimitiveFieldAccess_004_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/ReturnAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/InnerClassAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/SingleFieldAccessAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/StaticFieldAlias_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/HeapOverwriteAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/alias/NullAlias_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;并发、多线程、异步-&gt;同步原语</t>
-  </si>
-  <si>
-    <t>CompletableFuture_001_T.java &amp;&amp; !CompletableFuture_002_F.java,CompletableFuture_003_T.java &amp;&amp; !CompletableFuture_004_F.java</t>
-  </si>
-  <si>
-    <t>CompletableFuture_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>CompletableFuture_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/promise_callback_await/CompletableFuture_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;并发、多线程、异步-&gt;多线程</t>
-  </si>
-  <si>
-    <t>Async_Multithreading_001_T.java &amp;&amp; !Async_Multithreading_002_F.java,Async_Multithreading_003_T.java &amp;&amp; !Async_Multithreading_004_F.java,Async_Multithreading_005_T.java &amp;&amp; !Async_Multithreading_006_F.java,Async_Multithreading_007_T.java &amp;&amp; !Async_Multithreading_008_F.java,Async_Multithreading_009_T.java &amp;&amp; !Async_Multithreading_010_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_009_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_010_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/asynchronous_tracing/multi_thread/Async_Multithreading_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>cross_file_001_T_a.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_001_T/cross_file_001_T_a</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;文件、包、命名空间-&gt;跨文件</t>
-  </si>
-  <si>
-    <t>(cross_file_001_T_a.java || cross_file_001_T_b.java) &amp;&amp; !(cross_file_002_F_a.java || cross_file_002_F_b.java)</t>
-  </si>
-  <si>
-    <t>cross_file_001_T_b.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_001_T/cross_file_001_T_b</t>
-  </si>
-  <si>
-    <t>cross_file_002_F_b.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_002_F/cross_file_002_F_b</t>
-  </si>
-  <si>
-    <t>cross_file_002_F_a.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_file/cross_file_002_F/cross_file_002_F_a</t>
-  </si>
-  <si>
-    <t>cross_directory_002_F_a.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_002_F/A/cross_directory_002_F_a</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;文件、包、命名空间-&gt;跨包</t>
-  </si>
-  <si>
-    <t>(cross_directory_001_T_a.java || cross_directory_001_T_b.java) &amp;&amp; !(cross_directory_002_F_a.java || cross_directory_002_F_b.java)</t>
-  </si>
-  <si>
-    <t>cross_directory_002_F_b.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_002_F/B/cross_directory_002_F_b</t>
-  </si>
-  <si>
-    <t>cross_directory_001_T_a.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_001_T/A/cross_directory_001_T_a</t>
-  </si>
-  <si>
-    <t>cross_directory_001_T_b.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/cross_file_package_namespace/cross_directory/cross_directory_001_T/B/cross_directory_001_T_b</t>
-  </si>
-  <si>
-    <t>Expression_MethodInvocation_Argument_001_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/chained_call/Expression_MethodInvocation_Argument_001_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;链式调用</t>
-  </si>
-  <si>
-    <t>!Expression_MethodInvocation_Argument_001_F.java &amp;&amp; Expression_MethodInvocation_Argument_002_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/chained_call/Expression_MethodInvocation_Argument_002_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/override/Expression_Polymorphism_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;方法重写</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/override/Expression_Polymorphism_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>static_method_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/static_method/static_method_002_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;静态方法</t>
-  </si>
-  <si>
-    <t>static_field_001_T.java &amp;&amp; !static_field_002_F.java,static_method_001_T.java &amp;&amp; !static_method_002_F.java</t>
-  </si>
-  <si>
-    <t>static_field_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/static_method/static_field_002_F</t>
-  </si>
-  <si>
-    <t>static_field_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/static_method/static_field_001_T</t>
-  </si>
-  <si>
-    <t>static_method_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/static_method/static_method_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/return_value_passing/return_value_passing_002_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;返回值传递</t>
-  </si>
-  <si>
-    <t>return_value_passing_001_T.java &amp;&amp; !return_value_passing_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/return_value_passing/return_value_passing_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_InfixExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;参数传递</t>
-  </si>
-  <si>
-    <t>Expression_CallExpression_Package_001_T.java &amp;&amp; !Expression_CallExpression_Package_002_F.java,Expression_MethodInvocation_001_T.java &amp;&amp; !Expression_MethodInvocation_002_F.java,Expression_MethodInvocation_InfixExpression_001_T.java &amp;&amp; !Expression_MethodInvocation_InfixExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_CallExpression_Package_001_T/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_InfixExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_MethodInvocation_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/argument_passing/Expression_CallExpression_Package_002_F/{url}</t>
-  </si>
-  <si>
-    <t>higher_order_function_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/higher_order_function/higher_order_function_001_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;高阶函数</t>
-  </si>
-  <si>
-    <t>higher_order_function_001_T.java &amp;&amp; !higher_order_function_002_F.java</t>
-  </si>
-  <si>
-    <t>higher_order_function_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/higher_order_function/higher_order_function_002_F</t>
-  </si>
-  <si>
-    <t>CallExpression_NoSourceCode_Native_003_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_003_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;函数和方法调用-&gt;库函数调用</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Interface_001_T.java &amp;&amp; !CallExpression_CustomCode_Interface_002_F.java,!CallExpression_NoSourceCode_Native_001_F.java &amp;&amp; CallExpression_NoSourceCode_Native_002_T.java,!CallExpression_NoSourceCode_Native_003_F.java &amp;&amp; CallExpression_NoSourceCode_Native_004_T.java,!CallExpression_NoSourceCode_Native_005_F.java &amp;&amp; CallExpression_NoSourceCode_Native_006_T.java,!Expression_CallExpression_Array_001_F.java &amp;&amp; Expression_CallExpression_Array_002_T.java,!Expression_MethodInvocation_MethodInvocation_001_F.java &amp;&amp; Expression_MethodInvocation_MethodInvocation_002_T.java</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Interface_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_CustomCode_Interface_001_T</t>
-  </si>
-  <si>
-    <t>CallExpression_NoSourceCode_Native_001_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_001_F</t>
-  </si>
-  <si>
-    <t>Expression_CallExpression_Array_002_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/Expression_CallExpression_Array_002_T</t>
-  </si>
-  <si>
-    <t>Expression_MethodInvocation_MethodInvocation_002_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/Expression_MethodInvocation_MethodInvocation_002_T</t>
-  </si>
-  <si>
-    <t>CallExpression_NoSourceCode_Native_005_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_005_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_006_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_004_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Interface_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_CustomCode_Interface_002_F</t>
-  </si>
-  <si>
-    <t>Expression_CallExpression_Array_001_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/Expression_CallExpression_Array_001_F</t>
-  </si>
-  <si>
-    <t>Expression_MethodInvocation_MethodInvocation_001_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/Expression_MethodInvocation_MethodInvocation_001_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/function_call/library_function/CallExpression_NoSourceCode_Native_002_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_011_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_011_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;指针</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_009_T.java &amp;&amp; !CallExpression_CustomCode_Class_010_F.java,CallExpression_CustomCode_Class_011_T.java &amp;&amp; !CallExpression_CustomCode_Class_012_F.java</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_009_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_009_T</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_010_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_010_F</t>
-  </si>
-  <si>
-    <t>CallExpression_CustomCode_Class_012_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/generics/CallExpression_CustomCode_Class_012_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_006_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;数组</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_001_T.java &amp;&amp; !Base_ArrayAccess_002_F.java,Base_ArrayAccess_003_T.java &amp;&amp; !Base_ArrayAccess_004_F.java,Base_ArrayAccess_005_T.java &amp;&amp; !Base_ArrayAccess_006_F.java,Base_ArrayAccess_007_T.java &amp;&amp; !Base_ArrayAccess_008_F.java,Base_ArrayAccess_009_T.java &amp;&amp; !Base_ArrayAccess_010_F.java</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_008_F</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_004_F</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_010_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_010_F</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_001_T</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_009_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_009_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_005_T</t>
-  </si>
-  <si>
-    <t>Base_ArrayAccess_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/array/Base_ArrayAccess_007_T</t>
-  </si>
-  <si>
-    <t>Base_Byte_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;基础数据类型</t>
-  </si>
-  <si>
-    <t>(Base_Byte_001_T.java &amp;&amp; !Base_Byte_002_F.java)||(Base_Byte_005_T.java &amp;&amp; !Base_Byte_006_F.java),(Base_Byte_003_T.java &amp;&amp; !Base_Byte_004_F.java)||(Base_Byte_007_T.java &amp;&amp; !Base_Byte_008_F.java),(Base_ByteArray_001_T.java &amp;&amp; !Base_ByteArray_002_F.java)||(Base_ByteArray_003_T.java &amp;&amp; !Base_ByteArray_004_F.java),(Base_Char_001_T.java &amp;&amp; !Base_Char_002_F.java)||(Base_Char_005_T.java &amp;&amp; !Base_Char_006_F.java),(Base_Char_003_T.java &amp;&amp; !Base_Char_004_F.java)||(Base_Char_007_T.java &amp;&amp; !Base_Char_008_F.java),(Base_CharArray_001_T.java &amp;&amp; !Base_CharArray_002_F.java)||(Base_CharArray_003_T.java &amp;&amp; !Base_CharArray_004_F.java),(Base_Integer_001_T.java &amp;&amp; !Base_Integer_002_F.java)||(Base_Integer_003_T.java &amp;&amp; !Base_Integer_004_F.java),(Base_Integer_005_T.java &amp;&amp; !Base_Integer_006_F.java)||(Base_Integer_007_T.java &amp;&amp; !Base_Integer_008_F.java),(Base_Long_001_T.java &amp;&amp; !Base_Long_002_F.java)||(Base_Long_005_T.java &amp;&amp; !Base_Long_006_F.java),(Base_Long_003_T.java &amp;&amp; !Base_Long_004_F.java)||(Base_Long_007_T.java &amp;&amp; !Base_Long_008_F.java),(Base_Double_001_T.java &amp;&amp; !Base_Double_002_F.java)||(Base_Double_003_T.java &amp;&amp; !Base_Double_004_F.java),(Base_Float_001_T.java &amp;&amp; !Base_Float_002_F.java)||(Base_Float_003_T.java &amp;&amp; !Base_Float_004_F.java)</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Double_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Byte_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Byte_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_ByteArray_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_004_F</t>
-  </si>
-  <si>
-    <t>Base_Integer_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Double_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Long_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Float_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_001_T</t>
-  </si>
-  <si>
-    <t>Base_Integer_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Integer_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_CharArray_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_003_T</t>
-  </si>
-  <si>
-    <t>Base_Float_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Integer_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_ByteArray_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_002_F</t>
-  </si>
-  <si>
-    <t>Base_Long_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Byte_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Long_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Long_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Double_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_ByteArray_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_003_T</t>
-  </si>
-  <si>
-    <t>Base_CharArray_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_002_F</t>
-  </si>
-  <si>
-    <t>Base_Integer_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Float_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Integer_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Long_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Double_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Double_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_ByteArray_001_T</t>
-  </si>
-  <si>
-    <t>Base_Integer_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_CharArray_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_CharArray_004_F</t>
-  </si>
-  <si>
-    <t>Base_Long_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Long_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Char_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Char_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Byte_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Byte_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Byte_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Integer_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Float_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/primitives/Base_Float_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Base_Map_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/map/Base_Map_004_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;字典</t>
-  </si>
-  <si>
-    <t>(Base_Map_001_T.java &amp;&amp; !Base_Map_002_F.java)||(Base_Map_003_T.java &amp;&amp; !Base_Map_004_F.java)</t>
-  </si>
-  <si>
-    <t>Base_Map_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/map/Base_Map_002_F</t>
-  </si>
-  <si>
-    <t>Base_Map_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/map/Base_Map_003_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/map/Base_Map_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringArray_001_T</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;字符串</t>
-  </si>
-  <si>
-    <t>Base_String_001_T.java &amp;&amp; !Base_String_002_F.java,Base_StringArray_001_T.java &amp;&amp; !Base_StringArray_002_F.java,Base_StringBuffer_001_T.java &amp;&amp; !Base_StringBuffer_002_F.java,Base_StringBuilder_001_T.java &amp;&amp; !Base_StringBuilder_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_String_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuilder_001_T</t>
-  </si>
-  <si>
-    <t>Base_StringBuffer_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuffer_002_F</t>
-  </si>
-  <si>
-    <t>Base_String_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_String_002_F</t>
-  </si>
-  <si>
-    <t>Base_StringBuilder_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuilder_002_F</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringBuffer_001_T</t>
-  </si>
-  <si>
-    <t>Base_StringArray_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/string/Base_StringArray_002_F</t>
-  </si>
-  <si>
-    <t>Base_Queue_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_004_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;数据类型和结构-&gt;集合</t>
-  </si>
-  <si>
-    <t>Base_List_001_T.java &amp;&amp; !Base_List_002_F.java,Base_List_003_T.java &amp;&amp; !Base_List_004_F.java,(Base_Queue_001_T.java &amp;&amp; !Base_Queue_002_F.java)||(Base_Queue_003_T.java &amp;&amp; !Base_Queue_004_F.java),Base_Set_001_T.java &amp;&amp; !Base_Set_002_F.java,Base_Set_003_T.java &amp;&amp; !Base_Set_004_F.java,Base_List_005_T.java &amp;&amp; !Base_List_006_F.java,Base_List_007_T.java &amp;&amp; !Base_List_008_F.java,Base_Queue_005_T.java &amp;&amp; !Base_Queue_006_F.java,Base_Set_005_T.java &amp;&amp; !Base_Set_006_F.java</t>
-  </si>
-  <si>
-    <t>Base_Set_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_004_F</t>
-  </si>
-  <si>
-    <t>Base_List_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_002_F</t>
-  </si>
-  <si>
-    <t>Base_Set_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_006_F</t>
-  </si>
-  <si>
-    <t>Base_Queue_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_006_F</t>
-  </si>
-  <si>
-    <t>Base_Set_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_002_F</t>
-  </si>
-  <si>
-    <t>Base_List_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_006_F</t>
-  </si>
-  <si>
-    <t>Base_Queue_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_002_F</t>
-  </si>
-  <si>
-    <t>Base_List_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_008_F</t>
-  </si>
-  <si>
-    <t>Base_List_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_004_F</t>
-  </si>
-  <si>
-    <t>Base_List_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_005_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_001_T</t>
-  </si>
-  <si>
-    <t>Base_Queue_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_003_T</t>
-  </si>
-  <si>
-    <t>Base_List_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_007_T</t>
-  </si>
-  <si>
-    <t>Base_Set_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_003_T</t>
-  </si>
-  <si>
-    <t>Base_List_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_003_T</t>
-  </si>
-  <si>
-    <t>Base_Set_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Set_005_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_List_001_T</t>
-  </si>
-  <si>
-    <t>Base_Queue_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/datatype/collections/Base_Queue_005_T</t>
-  </si>
-  <si>
-    <t>Statement_AssertStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/assert_statement/Statement_AssertStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;异常与错误处理-&gt;断言</t>
-  </si>
-  <si>
-    <t>Statement_AssertStatement_001_T.java &amp;&amp; !Statement_AssertStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>Statement_AssertStatement_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/assert_statement/Statement_AssertStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryCatchStatement_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryCatchStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;异常与错误处理-&gt;异常抛出和捕获</t>
-  </si>
-  <si>
-    <t>Statement_TryCatchStatement_001_T.java &amp;&amp; !Statement_TryCatchStatement_002_F.java,Statement_TryStatement_001_T.java &amp;&amp; !Statement_TryStatement_002_F.java,Statement_FinallyStatement_001_T.java &amp;&amp; !Statement_FinallyStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>Statement_FinallyStatement_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_FinallyStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_FinallyStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_FinallyStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_TryCatchStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/exception_error/exception_throw/Statement_TryCatchStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>static_variable_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/variable_scope/static_variable/static_variable_002_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;变量作用域-&gt;静态变量</t>
-  </si>
-  <si>
-    <t>static_variable_001_T.java &amp;&amp; !static_variable_002_F.java</t>
-  </si>
-  <si>
-    <t>static_variable_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/variable_scope/static_variable/static_variable_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_WhileStatement_001_T/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;流程控制语句-&gt;循环结构</t>
-  </si>
-  <si>
-    <t>Statement_DoStatement_001_T.java &amp;&amp; !Statement_DoStatement_002_F.java,Statement_ForEachStatement_001_T.java &amp;&amp; !Statement_ForEachStatement_002_F.java,Statement_ForStatement_001_T.java &amp;&amp; !Statement_ForStatement_002_F.java,Statement_WhileStatement_001_T.java &amp;&amp; !Statement_WhileStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>Statement_ForStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_DoStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_DoStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_ForEachStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForEachStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_ForEachStatement_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_ForEachStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_DoStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_WhileStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/loop_stmt/Statement_WhileStatement_002_F/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_005_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_005_T/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;流程控制语句-&gt;条件语句</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_001_T.java &amp;&amp; !Statement_IfStatement_002_F.java,Statement_IfStatement_003_T.java &amp;&amp; !Statement_IfStatement_004_F.java,Statement_IfStatement_005_T.java &amp;&amp; !Statement_IfStatement_006_F.java,Statement_IfStatement_007_T.java &amp;&amp; !Statement_IfStatement_008_F.java,Statement_SwitchStatement_001_T.java &amp;&amp; !Statement_SwitchStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_007_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_007_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_SwitchStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_SwitchStatement_002_F/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_SwitchStatement_001_T/{type}/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_006_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_006_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_IfStatement_008_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/control_flow/conditional_stmt/Statement_IfStatement_008_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;类型转换</t>
-  </si>
-  <si>
-    <t>Expression_CastExpression_001_T.java &amp;&amp; !Expression_CastExpression_002_F.java,Expression_CastExpression_003_T.java &amp;&amp; !Expression_CastExpression_004_F.java</t>
-  </si>
-  <si>
-    <t>Expression_CastExpression_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_003_T/{url}</t>
-  </si>
-  <si>
-    <t>Expression_CastExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_CastExpression_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/type_cast/Expression_CastExpression_004_F/{url}</t>
-  </si>
-  <si>
-    <t>Expression_LambdaExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/lambda_expression/Expression_LambdaExpression_002_F</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;Lambda表达式</t>
-  </si>
-  <si>
-    <t>Expression_LambdaExpression_001_T.java &amp;&amp; !Expression_LambdaExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/lambda_expression/Expression_LambdaExpression_001_T</t>
-  </si>
-  <si>
-    <t>Expression_ThisExpression_Anonymous_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Anonymous_002_F/{url}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;this表达式</t>
-  </si>
-  <si>
-    <t>Expression_ThisExpression_001_T.java &amp;&amp; !Expression_ThisExpression_002_F.java,Expression_ThisExpression_Anonymous_001_T.java &amp;&amp; !Expression_ThisExpression_Anonymous_002_F.java,Expression_ThisExpression_Lambda_001_T.java &amp;&amp; !Expression_ThisExpression_Lambda_002_F.java</t>
-  </si>
-  <si>
-    <t>Expression_ThisExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_002_F/{url}</t>
-  </si>
-  <si>
-    <t>Expression_ThisExpression_Lambda_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Lambda_002_F/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_001_T/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Lambda_001_T/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/this_expression/Expression_ThisExpression_Anonymous_001_T/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/conditional_expression/Expression_TernaryOperator_001_T/{url}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;条件表达式</t>
-  </si>
-  <si>
-    <t>Expression_TernaryOperator_001_T.java &amp;&amp; !Expression_TernaryOperator_002_F.java</t>
-  </si>
-  <si>
-    <t>Expression_TernaryOperator_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/conditional_expression/Expression_TernaryOperator_002_F/{url}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PrefixExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;单应用跟踪完整度-&gt;表达式-&gt;基础表达式</t>
-  </si>
-  <si>
-    <t>Expression_AssignmentExpression_001_T.java &amp;&amp; !Expression_AssignmentExpression_002_F.java,Expression_AssignmentExpression_003_T.java &amp;&amp; !Expression_AssignmentExpression_004_F.java,Expression_BitOperation_001_T.java &amp;&amp; !Expression_BitOperation_002_F.java,Expression_ClassInstance_Infix_001_T.java &amp;&amp; !Expression_ClassInstance_Infix_002_F.java,Expression_InfixExpression_001_T.java &amp;&amp; !Expression_InfixExpression_002_F.java,Expression_InstanceofExpression_001_T.java &amp;&amp; !Expression_InstanceofExpression_002_F.java,Expression_PostfixExpression_001_T.java &amp;&amp; !Expression_PostfixExpression_002_F.java,Expression_PrefixExpression_001_T.java &amp;&amp; !Expression_PrefixExpression_002_F.java,Statement_VariableDeclarationStatement_001_T.java &amp;&amp; !Statement_VariableDeclarationStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_BitOperation_001_T</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InstanceofExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Statement_VariableDeclarationStatement_001_T</t>
-  </si>
-  <si>
-    <t>Expression_AssignmentExpression_003_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_003_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InfixExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_PostfixExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PostfixExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_ClassInstance_Infix_001_T</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PostfixExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_InfixExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InfixExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_AssignmentExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_ClassInstance_Infix_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_ClassInstance_Infix_002_F</t>
-  </si>
-  <si>
-    <t>Expression_InstanceofExpression_001_T.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_InstanceofExpression_001_T/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_PrefixExpression_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_PrefixExpression_002_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Expression_BitOperation_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_BitOperation_002_F</t>
-  </si>
-  <si>
-    <t>Expression_AssignmentExpression_004_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Expression_AssignmentExpression_004_F/{cmd}</t>
-  </si>
-  <si>
-    <t>Statement_VariableDeclarationStatement_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/single_app_tracing/expression/basic_expression_operation/Statement_VariableDeclarationStatement_002_F</t>
-  </si>
-  <si>
-    <t>Expression_Reflection_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/dynamic_tracing/dynamic_call/Expression_Reflection_002_F/{cmd}/{methodname}</t>
-  </si>
-  <si>
-    <t>完整度-&gt;动态特性跟踪完整度-&gt;反射调用</t>
-  </si>
-  <si>
-    <t>Expression_Reflection_001_T.java &amp;&amp; !Expression_Reflection_002_F.java</t>
-  </si>
-  <si>
-    <t>/completeness/dynamic_tracing/dynamic_call/Expression_Reflection_001_T/{cmd}/{methodname}</t>
-  </si>
-  <si>
-    <t>评价项等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准确度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径敏感分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件语句、条件表达式和循环结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够对上下文条件进行求解，以区分不同执行路径的状态</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2511,7 +2574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2538,6 +2601,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2552,7 +2627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2575,17 +2650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2600,9 +2664,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2920,14 +2982,14 @@
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="57.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="116.1640625" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
@@ -2952,8 +3014,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>827</v>
+      <c r="G1" s="1" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4395,7 +4457,7 @@
         <v>255</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>256</v>
+        <v>815</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>7</v>
@@ -4416,7 +4478,7 @@
         <v>255</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>256</v>
+        <v>815</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4428,19 +4490,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>256</v>
+        <v>815</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
@@ -4449,16 +4511,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>256</v>
+        <v>815</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4470,229 +4532,225 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>264</v>
+        <v>816</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>255</v>
+        <v>818</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="2" t="s">
-        <v>267</v>
+        <v>827</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>821</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>276</v>
+        <v>822</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>278</v>
+        <v>823</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>279</v>
+        <v>824</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>281</v>
+        <v>825</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>256</v>
+        <v>817</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>284</v>
+        <v>817</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
@@ -4701,16 +4759,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>285</v>
+        <v>826</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>284</v>
+        <v>817</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>7</v>
@@ -4725,13 +4783,13 @@
         <v>24</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>284</v>
+        <v>817</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
@@ -4743,16 +4801,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -4764,16 +4822,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -4785,16 +4843,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -4806,16 +4864,16 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>7</v>
@@ -4827,16 +4885,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>7</v>
@@ -4848,16 +4906,16 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>7</v>
@@ -4869,16 +4927,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -4890,16 +4948,16 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -4911,16 +4969,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -4932,16 +4990,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>
@@ -4953,16 +5011,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -4974,16 +5032,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>7</v>
@@ -4995,16 +5053,16 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -5016,16 +5074,16 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -5037,16 +5095,16 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -5058,16 +5116,16 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>7</v>
@@ -5079,16 +5137,16 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -5100,16 +5158,16 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -5124,13 +5182,13 @@
         <v>25</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -5142,16 +5200,16 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>7</v>
@@ -5163,16 +5221,16 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -5187,13 +5245,13 @@
         <v>18</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -5208,13 +5266,13 @@
         <v>36</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -5229,13 +5287,13 @@
         <v>53</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -5247,16 +5305,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -5271,13 +5329,13 @@
         <v>64</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -5289,16 +5347,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -5313,13 +5371,13 @@
         <v>19</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>7</v>
@@ -5331,16 +5389,16 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -5352,16 +5410,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -5373,16 +5431,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>7</v>
@@ -5394,16 +5452,16 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>7</v>
@@ -5415,16 +5473,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -5436,16 +5494,16 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>7</v>
@@ -5457,16 +5515,16 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>7</v>
@@ -5478,16 +5536,16 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -5499,16 +5557,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -5520,16 +5578,16 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -5541,16 +5599,16 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>7</v>
@@ -5562,16 +5620,16 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -5583,16 +5641,16 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>7</v>
@@ -5604,16 +5662,16 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -5625,16 +5683,16 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -5646,16 +5704,16 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -5670,13 +5728,13 @@
         <v>26</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>7</v>
@@ -5691,13 +5749,13 @@
         <v>27</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>7</v>
@@ -5712,13 +5770,13 @@
         <v>28</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>7</v>
@@ -5733,13 +5791,13 @@
         <v>30</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -5754,13 +5812,13 @@
         <v>31</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -5775,13 +5833,13 @@
         <v>32</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -5796,13 +5854,13 @@
         <v>33</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>7</v>
@@ -5817,13 +5875,13 @@
         <v>34</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -5838,13 +5896,13 @@
         <v>35</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>7</v>
@@ -5859,13 +5917,13 @@
         <v>37</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -5880,13 +5938,13 @@
         <v>38</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -5901,13 +5959,13 @@
         <v>39</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -5922,13 +5980,13 @@
         <v>40</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -5943,13 +6001,13 @@
         <v>42</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>7</v>
@@ -5964,13 +6022,13 @@
         <v>43</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>7</v>
@@ -5985,13 +6043,13 @@
         <v>45</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>7</v>
@@ -6006,13 +6064,13 @@
         <v>46</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -6027,13 +6085,13 @@
         <v>47</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -6048,13 +6106,13 @@
         <v>49</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -6069,13 +6127,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>7</v>
@@ -6090,13 +6148,13 @@
         <v>51</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -6111,13 +6169,13 @@
         <v>52</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>7</v>
@@ -6132,13 +6190,13 @@
         <v>54</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -6153,13 +6211,13 @@
         <v>55</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -6174,13 +6232,13 @@
         <v>58</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>7</v>
@@ -6195,13 +6253,13 @@
         <v>59</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>7</v>
@@ -6216,13 +6274,13 @@
         <v>60</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>7</v>
@@ -6237,13 +6295,13 @@
         <v>61</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -6258,13 +6316,13 @@
         <v>62</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -6279,13 +6337,13 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -6300,13 +6358,13 @@
         <v>65</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>7</v>
@@ -6321,13 +6379,13 @@
         <v>66</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>7</v>
@@ -6342,13 +6400,13 @@
         <v>67</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>7</v>
@@ -6363,13 +6421,13 @@
         <v>68</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -6384,13 +6442,13 @@
         <v>69</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -6405,13 +6463,13 @@
         <v>70</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>7</v>
@@ -6423,16 +6481,16 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>7</v>
@@ -6444,16 +6502,16 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -6465,16 +6523,16 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>7</v>
@@ -6486,16 +6544,16 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>7</v>
@@ -6507,16 +6565,16 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>7</v>
@@ -6528,16 +6586,16 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -6549,16 +6607,16 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>7</v>
@@ -6570,16 +6628,16 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>7</v>
@@ -6591,16 +6649,16 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>7</v>
@@ -6612,16 +6670,16 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -6633,16 +6691,16 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -6654,16 +6712,16 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -6675,16 +6733,16 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -6696,16 +6754,16 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -6717,16 +6775,16 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>7</v>
@@ -6738,16 +6796,16 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>7</v>
@@ -6759,16 +6817,16 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -6780,16 +6838,16 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -6801,16 +6859,16 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -6822,16 +6880,16 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -6843,16 +6901,16 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>7</v>
@@ -6864,16 +6922,16 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>7</v>
@@ -6885,16 +6943,16 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -6909,13 +6967,13 @@
         <v>102</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>7</v>
@@ -6930,10 +6988,10 @@
         <v>212</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>215</v>
@@ -6951,10 +7009,10 @@
         <v>216</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>215</v>
@@ -6969,16 +7027,16 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -6990,16 +7048,16 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -7011,16 +7069,16 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>7</v>
@@ -7032,16 +7090,16 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>7</v>
@@ -7056,13 +7114,13 @@
         <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -7077,13 +7135,13 @@
         <v>222</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>7</v>
@@ -7098,13 +7156,13 @@
         <v>224</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -7119,13 +7177,13 @@
         <v>227</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>7</v>
@@ -7140,13 +7198,13 @@
         <v>88</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>7</v>
@@ -7161,13 +7219,13 @@
         <v>94</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>7</v>
@@ -7182,13 +7240,13 @@
         <v>231</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -7203,13 +7261,13 @@
         <v>233</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -7221,16 +7279,16 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>7</v>
@@ -7242,16 +7300,16 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -7263,128 +7321,128 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7392,20 +7450,20 @@
         <v>103</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7413,83 +7471,83 @@
         <v>104</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7497,34 +7555,34 @@
         <v>105</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -7536,16 +7594,16 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>7</v>
@@ -7557,16 +7615,16 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -7578,16 +7636,16 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>7</v>
@@ -7602,13 +7660,13 @@
         <v>106</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -7620,16 +7678,16 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -7641,16 +7699,16 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -7662,16 +7720,16 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -7683,16 +7741,16 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -7707,13 +7765,13 @@
         <v>117</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>7</v>
@@ -7728,13 +7786,13 @@
         <v>119</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>7</v>
@@ -7746,16 +7804,16 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>7</v>
@@ -7770,13 +7828,13 @@
         <v>124</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>7</v>
@@ -7788,16 +7846,16 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>7</v>
@@ -7809,16 +7867,16 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -7833,13 +7891,13 @@
         <v>108</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>7</v>
@@ -7854,13 +7912,13 @@
         <v>109</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>7</v>
@@ -7872,16 +7930,16 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -7893,16 +7951,16 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -7917,13 +7975,13 @@
         <v>110</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>7</v>
@@ -7938,13 +7996,13 @@
         <v>111</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>7</v>
@@ -7956,16 +8014,16 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -7977,16 +8035,16 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -7998,16 +8056,16 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -8019,16 +8077,16 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>8</v>
@@ -8040,16 +8098,16 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>7</v>
@@ -8061,16 +8119,16 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>7</v>
@@ -8082,16 +8140,16 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="2" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>7</v>
@@ -8106,13 +8164,13 @@
         <v>113</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>7</v>
@@ -8124,16 +8182,16 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
@@ -8145,16 +8203,16 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>8</v>
@@ -8166,16 +8224,16 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>7</v>
@@ -8187,16 +8245,16 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>7</v>
@@ -8208,16 +8266,16 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>8</v>
@@ -8229,16 +8287,16 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>8</v>
@@ -8250,16 +8308,16 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="2" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>7</v>
@@ -8271,16 +8329,16 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="2" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>8</v>
@@ -8292,16 +8350,16 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="2" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>7</v>
@@ -8313,16 +8371,16 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="2" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>8</v>
@@ -8334,16 +8392,16 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>8</v>
@@ -8358,13 +8416,13 @@
         <v>115</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>7</v>
@@ -8376,16 +8434,16 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="2" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>8</v>
@@ -8397,16 +8455,16 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>8</v>
@@ -8418,16 +8476,16 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>7</v>
@@ -8439,16 +8497,16 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="2" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>7</v>
@@ -8460,16 +8518,16 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="2" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>8</v>
@@ -8481,16 +8539,16 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="2" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>7</v>
@@ -8502,16 +8560,16 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>8</v>
@@ -8523,16 +8581,16 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="2" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -8544,16 +8602,16 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="2" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>8</v>
@@ -8568,13 +8626,13 @@
         <v>122</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>7</v>
@@ -8586,16 +8644,16 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="2" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>8</v>
@@ -8607,16 +8665,16 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="2" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>7</v>
@@ -8631,13 +8689,13 @@
         <v>123</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>7</v>
@@ -8649,16 +8707,16 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>7</v>
@@ -8670,16 +8728,16 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>8</v>
@@ -8691,16 +8749,16 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>8</v>
@@ -8712,16 +8770,16 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="2" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>8</v>
@@ -8733,16 +8791,16 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>7</v>
@@ -8754,16 +8812,16 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>7</v>
@@ -8778,13 +8836,13 @@
         <v>126</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>7</v>
@@ -8796,16 +8854,16 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="2" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>8</v>
@@ -8817,16 +8875,16 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="2" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>8</v>
@@ -8838,16 +8896,16 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="2" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>8</v>
@@ -8859,16 +8917,16 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="2" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>7</v>
@@ -8883,13 +8941,13 @@
         <v>120</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>7</v>
@@ -8904,13 +8962,13 @@
         <v>107</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>7</v>
@@ -8925,13 +8983,13 @@
         <v>112</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -8946,13 +9004,13 @@
         <v>114</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>7</v>
@@ -8964,16 +9022,16 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="2" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>8</v>
@@ -8985,16 +9043,16 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>8</v>
@@ -9006,16 +9064,16 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>7</v>
@@ -9030,13 +9088,13 @@
         <v>121</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>7</v>
@@ -9048,16 +9106,16 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>7</v>
@@ -9069,16 +9127,16 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>8</v>
@@ -9090,16 +9148,16 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>8</v>
@@ -9111,16 +9169,16 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>8</v>
@@ -9132,16 +9190,16 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>8</v>
@@ -9153,16 +9211,16 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="2" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>8</v>
@@ -9174,16 +9232,16 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>8</v>
@@ -9195,16 +9253,16 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="2" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>8</v>
@@ -9216,16 +9274,16 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="2" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>8</v>
@@ -9237,16 +9295,16 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="2" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>8</v>
@@ -9258,16 +9316,16 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="2" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>8</v>
@@ -9279,16 +9337,16 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="2" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>7</v>
@@ -9303,13 +9361,13 @@
         <v>116</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>7</v>
@@ -9324,13 +9382,13 @@
         <v>118</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>7</v>
@@ -9342,16 +9400,16 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="2" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>7</v>
@@ -9363,16 +9421,16 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="2" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -9384,16 +9442,16 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="2" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>7</v>
@@ -9405,16 +9463,16 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="2" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>7</v>
@@ -9426,16 +9484,16 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>7</v>
@@ -9450,13 +9508,13 @@
         <v>125</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -9468,16 +9526,16 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="2" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>7</v>
@@ -9489,184 +9547,184 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="2" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="2" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="2" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="2" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="2" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>8</v>
@@ -9678,16 +9736,16 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>7</v>
@@ -9702,13 +9760,13 @@
         <v>81</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>7</v>
@@ -9720,16 +9778,16 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="2" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>8</v>
@@ -9741,16 +9799,16 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="2" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>8</v>
@@ -9762,16 +9820,16 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="2" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>8</v>
@@ -9786,13 +9844,13 @@
         <v>93</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>7</v>
@@ -9804,16 +9862,16 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="2" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>7</v>
@@ -9828,13 +9886,13 @@
         <v>97</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>7</v>
@@ -9846,16 +9904,16 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="2" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>8</v>
@@ -9867,16 +9925,16 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="2" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>7</v>
@@ -9888,16 +9946,16 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="2" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>7</v>
@@ -9909,16 +9967,16 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="2" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>7</v>
@@ -9933,13 +9991,13 @@
         <v>90</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>7</v>
@@ -9951,16 +10009,16 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="2" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>8</v>
@@ -9975,13 +10033,13 @@
         <v>99</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>7</v>
@@ -9993,16 +10051,16 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>8</v>
@@ -10014,16 +10072,16 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="2" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>8</v>
@@ -10035,16 +10093,16 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="2" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>8</v>
@@ -10056,16 +10114,16 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="2" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>8</v>
@@ -10080,13 +10138,13 @@
         <v>87</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>7</v>
@@ -10098,16 +10156,16 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="2" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>7</v>
@@ -10119,16 +10177,16 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="2" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>8</v>
@@ -10140,16 +10198,16 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="2" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>8</v>
@@ -10161,16 +10219,16 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="2" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>8</v>
@@ -10185,13 +10243,13 @@
         <v>96</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>7</v>
@@ -10203,16 +10261,16 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="2" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>8</v>
@@ -10224,16 +10282,16 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="2" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>8</v>
@@ -10245,16 +10303,16 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="2" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>8</v>
@@ -10269,13 +10327,13 @@
         <v>95</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>7</v>
@@ -10290,13 +10348,13 @@
         <v>98</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>7</v>
@@ -10311,13 +10369,13 @@
         <v>100</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>7</v>
@@ -10332,13 +10390,13 @@
         <v>85</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>7</v>
@@ -10350,16 +10408,16 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>8</v>
@@ -10374,13 +10432,13 @@
         <v>82</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>7</v>
@@ -10395,13 +10453,13 @@
         <v>83</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>7</v>
@@ -10413,16 +10471,16 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>8</v>
@@ -10437,13 +10495,13 @@
         <v>84</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -10455,16 +10513,16 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>7</v>
@@ -10479,13 +10537,13 @@
         <v>86</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>7</v>
@@ -10497,16 +10555,16 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>8</v>
@@ -10521,13 +10579,13 @@
         <v>89</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>7</v>
@@ -10542,13 +10600,13 @@
         <v>91</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>7</v>
@@ -10563,13 +10621,13 @@
         <v>92</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>7</v>
@@ -10581,16 +10639,16 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="2" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>8</v>
@@ -10602,16 +10660,16 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="2" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>8</v>
@@ -10623,16 +10681,16 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="2" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>8</v>
@@ -10644,16 +10702,16 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="2" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>7</v>
@@ -10665,16 +10723,16 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="2" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>8</v>
@@ -10686,16 +10744,16 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="2" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>8</v>
@@ -10707,16 +10765,16 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>8</v>
@@ -10728,16 +10786,16 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>8</v>
@@ -10749,16 +10807,16 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="2" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>8</v>
@@ -10773,13 +10831,13 @@
         <v>101</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>7</v>
@@ -10792,5 +10850,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>